--- a/data/pca/factorExposure/factorExposure_2009-02-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01692199958668074</v>
+        <v>0.0156750556570603</v>
       </c>
       <c r="C2">
-        <v>0.01025150043099435</v>
+        <v>-0.01196114460173478</v>
       </c>
       <c r="D2">
-        <v>-0.01347810354824321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01487286435222163</v>
+      </c>
+      <c r="E2">
+        <v>0.002990999555821099</v>
+      </c>
+      <c r="F2">
+        <v>0.004336619688946036</v>
+      </c>
+      <c r="G2">
+        <v>-0.01848881471102224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08173795076086228</v>
+        <v>0.08436117622029887</v>
       </c>
       <c r="C4">
-        <v>0.07718594447031643</v>
+        <v>-0.08260670333802954</v>
       </c>
       <c r="D4">
-        <v>0.05705255013445004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06227388831347198</v>
+      </c>
+      <c r="E4">
+        <v>-0.004110359911132719</v>
+      </c>
+      <c r="F4">
+        <v>0.04718386968530938</v>
+      </c>
+      <c r="G4">
+        <v>-0.03253920495615631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002518034213087488</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.001063149068006337</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6.976165801141155e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.002748383276659252</v>
+      </c>
+      <c r="F5">
+        <v>-0.00221772047314986</v>
+      </c>
+      <c r="G5">
+        <v>0.002256798813539965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1669859711855141</v>
+        <v>0.1697942498760687</v>
       </c>
       <c r="C6">
-        <v>-0.02177865425725947</v>
+        <v>0.01342567284801731</v>
       </c>
       <c r="D6">
-        <v>0.04614417137241936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05498668592899584</v>
+      </c>
+      <c r="E6">
+        <v>-0.004248897050881673</v>
+      </c>
+      <c r="F6">
+        <v>-0.05086615250109169</v>
+      </c>
+      <c r="G6">
+        <v>0.01616163613064064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05494590392991697</v>
+        <v>0.05930737126277128</v>
       </c>
       <c r="C7">
-        <v>0.05321280722969639</v>
+        <v>-0.05941287199861023</v>
       </c>
       <c r="D7">
-        <v>0.02639931083195543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05265179969773529</v>
+      </c>
+      <c r="E7">
+        <v>-0.04188820699295392</v>
+      </c>
+      <c r="F7">
+        <v>0.07412039013802835</v>
+      </c>
+      <c r="G7">
+        <v>-0.04669711107221599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05751572606462994</v>
+        <v>0.05371980402019026</v>
       </c>
       <c r="C8">
-        <v>0.04323354146436162</v>
+        <v>-0.04511486930428753</v>
       </c>
       <c r="D8">
-        <v>-0.01242607528244726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02372764064967211</v>
+      </c>
+      <c r="E8">
+        <v>0.02330025377069747</v>
+      </c>
+      <c r="F8">
+        <v>0.03274865621769871</v>
+      </c>
+      <c r="G8">
+        <v>0.003985909817608997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06222481642828417</v>
+        <v>0.06547624581432968</v>
       </c>
       <c r="C9">
-        <v>0.08419428101545179</v>
+        <v>-0.08811279683362859</v>
       </c>
       <c r="D9">
-        <v>0.07778202802234262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08061451018818323</v>
+      </c>
+      <c r="E9">
+        <v>-0.00549220428954235</v>
+      </c>
+      <c r="F9">
+        <v>0.07146836436054893</v>
+      </c>
+      <c r="G9">
+        <v>-0.005519399380249462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1046041935974197</v>
+        <v>0.09747674502769473</v>
       </c>
       <c r="C10">
-        <v>-0.1565825190008223</v>
+        <v>0.1486900720817929</v>
       </c>
       <c r="D10">
-        <v>-0.1071183879828245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09650618657564247</v>
+      </c>
+      <c r="E10">
+        <v>-0.01608498790810459</v>
+      </c>
+      <c r="F10">
+        <v>0.039218452411724</v>
+      </c>
+      <c r="G10">
+        <v>0.006563288499820931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.08090724744265979</v>
+        <v>0.07848063422437346</v>
       </c>
       <c r="C11">
-        <v>0.127705735721744</v>
+        <v>-0.1267599271692586</v>
       </c>
       <c r="D11">
-        <v>0.05767143862102367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04269084794182428</v>
+      </c>
+      <c r="E11">
+        <v>0.0126744084767549</v>
+      </c>
+      <c r="F11">
+        <v>0.08053421399312438</v>
+      </c>
+      <c r="G11">
+        <v>-0.006898976655536128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.08494756869872135</v>
+        <v>0.0804267704351037</v>
       </c>
       <c r="C12">
-        <v>0.1436284412410914</v>
+        <v>-0.145429142317803</v>
       </c>
       <c r="D12">
-        <v>0.05538581416676832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05058753597698721</v>
+      </c>
+      <c r="E12">
+        <v>0.001499864554664777</v>
+      </c>
+      <c r="F12">
+        <v>0.09147417172751726</v>
+      </c>
+      <c r="G12">
+        <v>-0.01219416669427359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04283190223520651</v>
+        <v>0.0426421344029979</v>
       </c>
       <c r="C13">
-        <v>0.0597981662193318</v>
+        <v>-0.06738861520365315</v>
       </c>
       <c r="D13">
-        <v>0.02000721316942744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02585632313441682</v>
+      </c>
+      <c r="E13">
+        <v>-0.01221549337160423</v>
+      </c>
+      <c r="F13">
+        <v>0.08104562122745841</v>
+      </c>
+      <c r="G13">
+        <v>-0.01559657718200768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02058353300885744</v>
+        <v>0.02324852879500301</v>
       </c>
       <c r="C14">
-        <v>0.04044288176821569</v>
+        <v>-0.0406966436010261</v>
       </c>
       <c r="D14">
-        <v>0.04811513561427277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0390631758126764</v>
+      </c>
+      <c r="E14">
+        <v>0.009177810725249202</v>
+      </c>
+      <c r="F14">
+        <v>0.08709202018772351</v>
+      </c>
+      <c r="G14">
+        <v>0.001587313948033491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03079351656983801</v>
+        <v>0.0331540489178982</v>
       </c>
       <c r="C15">
-        <v>0.05239538764559212</v>
+        <v>-0.05208580049653902</v>
       </c>
       <c r="D15">
-        <v>0.03950640240933737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.036252111896734</v>
+      </c>
+      <c r="E15">
+        <v>-0.007491923125285033</v>
+      </c>
+      <c r="F15">
+        <v>0.04101651017207966</v>
+      </c>
+      <c r="G15">
+        <v>0.008022698937641699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0597980238186764</v>
+        <v>0.0595223062499118</v>
       </c>
       <c r="C16">
-        <v>0.142250444792237</v>
+        <v>-0.141884285095612</v>
       </c>
       <c r="D16">
-        <v>0.07278480831014861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05158570774342773</v>
+      </c>
+      <c r="E16">
+        <v>0.02748721701495639</v>
+      </c>
+      <c r="F16">
+        <v>0.08835145567516761</v>
+      </c>
+      <c r="G16">
+        <v>-0.01369069021196026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004919732831062835</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.003924928519655826</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002655830724193439</v>
+      </c>
+      <c r="E17">
+        <v>0.008754947523247651</v>
+      </c>
+      <c r="F17">
+        <v>-0.005336310604359744</v>
+      </c>
+      <c r="G17">
+        <v>0.01657865700813004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.03492956326309585</v>
+        <v>0.05115819952967642</v>
       </c>
       <c r="C18">
-        <v>0.04102024560527747</v>
+        <v>-0.03641488177662028</v>
       </c>
       <c r="D18">
-        <v>-0.004472352220497899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01225541175398123</v>
+      </c>
+      <c r="E18">
+        <v>-0.000838090107497573</v>
+      </c>
+      <c r="F18">
+        <v>-0.04251525315944388</v>
+      </c>
+      <c r="G18">
+        <v>0.01235055733458486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05791734467807768</v>
+        <v>0.05789869823161753</v>
       </c>
       <c r="C20">
-        <v>0.09052431298869697</v>
+        <v>-0.09062430464724797</v>
       </c>
       <c r="D20">
-        <v>0.07796617883902929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.06581615329669949</v>
+      </c>
+      <c r="E20">
+        <v>0.02007346187909834</v>
+      </c>
+      <c r="F20">
+        <v>0.07803573080961772</v>
+      </c>
+      <c r="G20">
+        <v>0.0009196092942518593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.042637995566837</v>
+        <v>0.04442554034073037</v>
       </c>
       <c r="C21">
-        <v>0.05243949501042761</v>
+        <v>-0.05254583507637103</v>
       </c>
       <c r="D21">
-        <v>-0.0007726976076510977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.004091962063294257</v>
+      </c>
+      <c r="E21">
+        <v>-0.008192228121321645</v>
+      </c>
+      <c r="F21">
+        <v>0.07650424178075034</v>
+      </c>
+      <c r="G21">
+        <v>-0.02577307465767063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04535895142149562</v>
+        <v>0.0435460150758507</v>
       </c>
       <c r="C22">
-        <v>0.01834155403239484</v>
+        <v>-0.02144299116320922</v>
       </c>
       <c r="D22">
-        <v>0.0172149252576695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04930597995149227</v>
+      </c>
+      <c r="E22">
+        <v>0.1154612377991934</v>
+      </c>
+      <c r="F22">
+        <v>-0.02946546493294423</v>
+      </c>
+      <c r="G22">
+        <v>0.001349891901281858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04536830418119637</v>
+        <v>0.04355393144920236</v>
       </c>
       <c r="C23">
-        <v>0.01833406258228108</v>
+        <v>-0.02143663010814871</v>
       </c>
       <c r="D23">
-        <v>0.01720216818475124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04933742957151237</v>
+      </c>
+      <c r="E23">
+        <v>0.1154942426214344</v>
+      </c>
+      <c r="F23">
+        <v>-0.0294604692625023</v>
+      </c>
+      <c r="G23">
+        <v>0.001385157027243501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06854124817871862</v>
+        <v>0.06773215241517722</v>
       </c>
       <c r="C24">
-        <v>0.1346368647227865</v>
+        <v>-0.1327162540251804</v>
       </c>
       <c r="D24">
-        <v>0.0617298332320818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05178987925112145</v>
+      </c>
+      <c r="E24">
+        <v>0.007042210654374883</v>
+      </c>
+      <c r="F24">
+        <v>0.07905076207119192</v>
+      </c>
+      <c r="G24">
+        <v>-0.01337533581961697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07444351095918775</v>
+        <v>0.07255183087886752</v>
       </c>
       <c r="C25">
-        <v>0.1220373873873208</v>
+        <v>-0.1198244768465131</v>
       </c>
       <c r="D25">
-        <v>0.03879762208294825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0360747328306561</v>
+      </c>
+      <c r="E25">
+        <v>-0.01774567229844973</v>
+      </c>
+      <c r="F25">
+        <v>0.09150099511368093</v>
+      </c>
+      <c r="G25">
+        <v>-0.01813326650846204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05680630216398524</v>
+        <v>0.06095239648819263</v>
       </c>
       <c r="C26">
-        <v>0.06359994896422326</v>
+        <v>-0.06476546293905919</v>
       </c>
       <c r="D26">
-        <v>0.02639081501325274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01107461187480065</v>
+      </c>
+      <c r="E26">
+        <v>0.008958792528351505</v>
+      </c>
+      <c r="F26">
+        <v>0.08735443874195886</v>
+      </c>
+      <c r="G26">
+        <v>-0.001836394033852587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1667607147701355</v>
+        <v>0.1697556202040141</v>
       </c>
       <c r="C28">
-        <v>-0.235593922242257</v>
+        <v>0.2346007490246883</v>
       </c>
       <c r="D28">
-        <v>-0.03273622657106073</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02170942548503369</v>
+      </c>
+      <c r="E28">
+        <v>-0.06066377817294539</v>
+      </c>
+      <c r="F28">
+        <v>0.1245454555104345</v>
+      </c>
+      <c r="G28">
+        <v>0.001662876908569476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02468388669532972</v>
+        <v>0.02728340202595969</v>
       </c>
       <c r="C29">
-        <v>0.04457892165534665</v>
+        <v>-0.04227484544813256</v>
       </c>
       <c r="D29">
-        <v>0.01475966176313258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0006162059203006188</v>
+      </c>
+      <c r="E29">
+        <v>0.02358826744450672</v>
+      </c>
+      <c r="F29">
+        <v>0.07633874086723522</v>
+      </c>
+      <c r="G29">
+        <v>-0.001359171729807909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04134205771695942</v>
+        <v>0.04345874589329146</v>
       </c>
       <c r="C30">
-        <v>0.06695244556609409</v>
+        <v>-0.07459272196560258</v>
       </c>
       <c r="D30">
-        <v>0.09446213276996918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1046809957839343</v>
+      </c>
+      <c r="E30">
+        <v>-0.0546166178712006</v>
+      </c>
+      <c r="F30">
+        <v>0.09003139187996703</v>
+      </c>
+      <c r="G30">
+        <v>0.01847448398345672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05303283019639747</v>
+        <v>0.0522078857272148</v>
       </c>
       <c r="C31">
-        <v>0.03261934870792382</v>
+        <v>-0.03565961029272388</v>
       </c>
       <c r="D31">
-        <v>0.0216889964553537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.009791760463902456</v>
+      </c>
+      <c r="E31">
+        <v>0.03603263493308857</v>
+      </c>
+      <c r="F31">
+        <v>0.01496179035546119</v>
+      </c>
+      <c r="G31">
+        <v>-0.02331804324253548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04349315075431081</v>
+        <v>0.04823179825207467</v>
       </c>
       <c r="C32">
-        <v>0.047499446594532</v>
+        <v>-0.0444732425720679</v>
       </c>
       <c r="D32">
-        <v>0.02873001629168133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01982409019504933</v>
+      </c>
+      <c r="E32">
+        <v>0.02773262793426741</v>
+      </c>
+      <c r="F32">
+        <v>0.005233267803832061</v>
+      </c>
+      <c r="G32">
+        <v>0.01385770961177847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.08043836251217364</v>
+        <v>0.08345750788132836</v>
       </c>
       <c r="C33">
-        <v>0.1075382707196807</v>
+        <v>-0.115590439916444</v>
       </c>
       <c r="D33">
-        <v>0.07090758699981101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05680204189693627</v>
+      </c>
+      <c r="E33">
+        <v>0.02301943522809434</v>
+      </c>
+      <c r="F33">
+        <v>0.08373863460067882</v>
+      </c>
+      <c r="G33">
+        <v>-0.009570650801055845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05802006333801302</v>
+        <v>0.05740019277969099</v>
       </c>
       <c r="C34">
-        <v>0.1205633476882356</v>
+        <v>-0.1222516806206959</v>
       </c>
       <c r="D34">
-        <v>0.06635334187446651</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05837809500344512</v>
+      </c>
+      <c r="E34">
+        <v>-0.01534403887661894</v>
+      </c>
+      <c r="F34">
+        <v>0.09204424631073335</v>
+      </c>
+      <c r="G34">
+        <v>0.01861304061973496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02716191325760454</v>
+        <v>0.02892405890111743</v>
       </c>
       <c r="C35">
-        <v>0.01591586719878678</v>
+        <v>-0.01718209113942446</v>
       </c>
       <c r="D35">
-        <v>0.03068021216059657</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01385716903618957</v>
+      </c>
+      <c r="E35">
+        <v>0.0230263680249749</v>
+      </c>
+      <c r="F35">
+        <v>0.0393789088163603</v>
+      </c>
+      <c r="G35">
+        <v>0.02436456544968066</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02280334378022206</v>
+        <v>0.02754090360398196</v>
       </c>
       <c r="C36">
-        <v>0.0449317333653944</v>
+        <v>-0.04540381752134642</v>
       </c>
       <c r="D36">
-        <v>0.05902500793749021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04411776391053144</v>
+      </c>
+      <c r="E36">
+        <v>0.01800904480158497</v>
+      </c>
+      <c r="F36">
+        <v>0.04476618659788219</v>
+      </c>
+      <c r="G36">
+        <v>0.0837918458180572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003668626121613794</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.005684223262994631</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.001045046794298866</v>
+      </c>
+      <c r="E37">
+        <v>0.001155019442361203</v>
+      </c>
+      <c r="F37">
+        <v>0.01031436001166411</v>
+      </c>
+      <c r="G37">
+        <v>-0.006441671732558596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08672826060886309</v>
+        <v>0.0802351677365442</v>
       </c>
       <c r="C39">
-        <v>0.1493383835443428</v>
+        <v>-0.145591422030775</v>
       </c>
       <c r="D39">
-        <v>0.04621025052767464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03477900533186064</v>
+      </c>
+      <c r="E39">
+        <v>0.009782895551190619</v>
+      </c>
+      <c r="F39">
+        <v>0.1225051367613102</v>
+      </c>
+      <c r="G39">
+        <v>-0.05533042901724564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04580681795076562</v>
+        <v>0.05129637577095949</v>
       </c>
       <c r="C40">
-        <v>0.05589389778923495</v>
+        <v>-0.05956238809660843</v>
       </c>
       <c r="D40">
-        <v>0.009405250262910858</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.001142986390391223</v>
+      </c>
+      <c r="E40">
+        <v>-0.002526382311840068</v>
+      </c>
+      <c r="F40">
+        <v>0.0625093446417032</v>
+      </c>
+      <c r="G40">
+        <v>0.03302010332415982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02746757599944406</v>
+        <v>0.02934478592030665</v>
       </c>
       <c r="C41">
-        <v>0.02154228057337888</v>
+        <v>-0.02272222896885481</v>
       </c>
       <c r="D41">
-        <v>-0.00535479362924866</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005676427867645955</v>
+      </c>
+      <c r="E41">
+        <v>0.004401374065466261</v>
+      </c>
+      <c r="F41">
+        <v>-0.01341216176755566</v>
+      </c>
+      <c r="G41">
+        <v>0.01328547902996251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04249267079429167</v>
+        <v>0.04177796519393309</v>
       </c>
       <c r="C43">
-        <v>0.03578572977996032</v>
+        <v>-0.033963466935934</v>
       </c>
       <c r="D43">
-        <v>0.006535265734245177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005368818393477299</v>
+      </c>
+      <c r="E43">
+        <v>0.02341392347891435</v>
+      </c>
+      <c r="F43">
+        <v>0.0248632776443675</v>
+      </c>
+      <c r="G43">
+        <v>-0.003351044300761405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05565309061923626</v>
+        <v>0.06367744367605217</v>
       </c>
       <c r="C44">
-        <v>0.0741960779140505</v>
+        <v>-0.08103657391069446</v>
       </c>
       <c r="D44">
-        <v>0.259412282442785</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.254363721465223</v>
+      </c>
+      <c r="E44">
+        <v>-0.02761292904725857</v>
+      </c>
+      <c r="F44">
+        <v>0.191803893506886</v>
+      </c>
+      <c r="G44">
+        <v>0.1769684633355665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1.274205038827765e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-0.0001502294392991638</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.0001948061721371099</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001638911885894208</v>
+      </c>
+      <c r="F45">
+        <v>0.0002617407444127732</v>
+      </c>
+      <c r="G45">
+        <v>-0.0002629712603956482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02684964444625475</v>
+        <v>0.02702073238697209</v>
       </c>
       <c r="C46">
-        <v>0.0276347327106497</v>
+        <v>-0.02790675691738076</v>
       </c>
       <c r="D46">
-        <v>0.02143840461944233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.002919004930940762</v>
+      </c>
+      <c r="E46">
+        <v>0.03272828852487483</v>
+      </c>
+      <c r="F46">
+        <v>0.06863222739161061</v>
+      </c>
+      <c r="G46">
+        <v>-0.03370667415395202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05200492594610256</v>
+        <v>0.0510710495898096</v>
       </c>
       <c r="C47">
-        <v>0.02247853119040024</v>
+        <v>-0.02455261234807353</v>
       </c>
       <c r="D47">
-        <v>-0.006426337099563437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02100138482974742</v>
+      </c>
+      <c r="E47">
+        <v>0.05345380477840553</v>
+      </c>
+      <c r="F47">
+        <v>-0.01675280349407176</v>
+      </c>
+      <c r="G47">
+        <v>-0.03140810240946003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04726741138304979</v>
+        <v>0.05080010827108141</v>
       </c>
       <c r="C48">
-        <v>0.06437320896112256</v>
+        <v>-0.06312961118650737</v>
       </c>
       <c r="D48">
-        <v>0.01069920128599084</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01648480980258355</v>
+      </c>
+      <c r="E48">
+        <v>-0.01866587744312585</v>
+      </c>
+      <c r="F48">
+        <v>0.05701087533144633</v>
+      </c>
+      <c r="G48">
+        <v>-0.02413397512586954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1945922366901278</v>
+        <v>0.1977339953519985</v>
       </c>
       <c r="C49">
-        <v>-0.01764745283559896</v>
+        <v>0.01074364704328395</v>
       </c>
       <c r="D49">
-        <v>0.01301798422506252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04120387015355241</v>
+      </c>
+      <c r="E49">
+        <v>-0.02534654952704381</v>
+      </c>
+      <c r="F49">
+        <v>-0.05205337567300919</v>
+      </c>
+      <c r="G49">
+        <v>0.005961658576178256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05097665228743642</v>
+        <v>0.05246847757527531</v>
       </c>
       <c r="C50">
-        <v>0.03075986204793838</v>
+        <v>-0.03325335144147501</v>
       </c>
       <c r="D50">
-        <v>0.02859961604530572</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02269071174959401</v>
+      </c>
+      <c r="E50">
+        <v>0.02619144573632109</v>
+      </c>
+      <c r="F50">
+        <v>0.007116242076266417</v>
+      </c>
+      <c r="G50">
+        <v>-0.02179337233572664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1453869944968998</v>
+        <v>0.1389465531187156</v>
       </c>
       <c r="C52">
-        <v>0.03613690863545776</v>
+        <v>-0.03765937151862765</v>
       </c>
       <c r="D52">
-        <v>0.06100290147642511</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.05700018439598709</v>
+      </c>
+      <c r="E52">
+        <v>0.03043826524143893</v>
+      </c>
+      <c r="F52">
+        <v>-0.06008863185890602</v>
+      </c>
+      <c r="G52">
+        <v>-0.02431922590515873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1760578760530284</v>
+        <v>0.1669613536035284</v>
       </c>
       <c r="C53">
-        <v>0.008105640365514562</v>
+        <v>-0.0117610235819416</v>
       </c>
       <c r="D53">
-        <v>0.1024609904686323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1095801824306452</v>
+      </c>
+      <c r="E53">
+        <v>0.03231720461562314</v>
+      </c>
+      <c r="F53">
+        <v>-0.1069497006411001</v>
+      </c>
+      <c r="G53">
+        <v>-0.0535127809950719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01174457176570009</v>
+        <v>0.01491591151874494</v>
       </c>
       <c r="C54">
-        <v>0.03038185909775195</v>
+        <v>-0.03088444644096656</v>
       </c>
       <c r="D54">
-        <v>0.01391085652593001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01166307207595273</v>
+      </c>
+      <c r="E54">
+        <v>0.01478306239225067</v>
+      </c>
+      <c r="F54">
+        <v>0.05585500929600445</v>
+      </c>
+      <c r="G54">
+        <v>0.006524870583903392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1211540116562092</v>
+        <v>0.1173701280989093</v>
       </c>
       <c r="C55">
-        <v>0.007826373493274549</v>
+        <v>-0.01424584052060348</v>
       </c>
       <c r="D55">
-        <v>0.07690695241996703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06415916891928267</v>
+      </c>
+      <c r="E55">
+        <v>0.05447980778912657</v>
+      </c>
+      <c r="F55">
+        <v>-0.0313310775277466</v>
+      </c>
+      <c r="G55">
+        <v>-0.06087641712024398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1814846824906313</v>
+        <v>0.1740076981540752</v>
       </c>
       <c r="C56">
-        <v>-0.0009621466888132163</v>
+        <v>-0.001081348041349309</v>
       </c>
       <c r="D56">
-        <v>0.06063588665046546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06215714284876004</v>
+      </c>
+      <c r="E56">
+        <v>0.04833833384506241</v>
+      </c>
+      <c r="F56">
+        <v>-0.1419200288124603</v>
+      </c>
+      <c r="G56">
+        <v>-0.05843893728800927</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04699081764432374</v>
+        <v>0.04644205776960474</v>
       </c>
       <c r="C58">
-        <v>0.09252965842424607</v>
+        <v>-0.09890678802000373</v>
       </c>
       <c r="D58">
-        <v>0.006822280359949317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.008123405519007134</v>
+      </c>
+      <c r="E58">
+        <v>0.04071301083892818</v>
+      </c>
+      <c r="F58">
+        <v>0.04020694024724466</v>
+      </c>
+      <c r="G58">
+        <v>-0.02003102346874581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1821070234369513</v>
+        <v>0.1857627065438157</v>
       </c>
       <c r="C59">
-        <v>-0.1972159403183353</v>
+        <v>0.1988570479263724</v>
       </c>
       <c r="D59">
-        <v>-0.07890085438756109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0817369922753251</v>
+      </c>
+      <c r="E59">
+        <v>-0.01105493810391734</v>
+      </c>
+      <c r="F59">
+        <v>0.05454154039832008</v>
+      </c>
+      <c r="G59">
+        <v>-0.04381879278227899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2178465557774553</v>
+        <v>0.212651330779802</v>
       </c>
       <c r="C60">
-        <v>0.01649973946361568</v>
+        <v>-0.02249702776190564</v>
       </c>
       <c r="D60">
-        <v>-0.05158853472673283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0276532226449426</v>
+      </c>
+      <c r="E60">
+        <v>0.0127328508481682</v>
+      </c>
+      <c r="F60">
+        <v>-0.2068835887796212</v>
+      </c>
+      <c r="G60">
+        <v>-0.08047987193829709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06828383806258573</v>
+        <v>0.06468453752957125</v>
       </c>
       <c r="C61">
-        <v>0.1223367501920721</v>
+        <v>-0.1200206691545652</v>
       </c>
       <c r="D61">
-        <v>0.04235116066636602</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02559558801080967</v>
+      </c>
+      <c r="E61">
+        <v>0.02233397464712207</v>
+      </c>
+      <c r="F61">
+        <v>0.08187567110008412</v>
+      </c>
+      <c r="G61">
+        <v>-0.02367379814362132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1687935584433435</v>
+        <v>0.1648525879525851</v>
       </c>
       <c r="C62">
-        <v>-0.004218314885675147</v>
+        <v>0.0005746523500112155</v>
       </c>
       <c r="D62">
-        <v>0.05125146944272112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.05031381771220152</v>
+      </c>
+      <c r="E62">
+        <v>0.05114622610417809</v>
+      </c>
+      <c r="F62">
+        <v>-0.1109304557466336</v>
+      </c>
+      <c r="G62">
+        <v>-0.05077067911714789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03884905056071015</v>
+        <v>0.04401926917116228</v>
       </c>
       <c r="C63">
-        <v>0.06659258950794836</v>
+        <v>-0.0707552595902486</v>
       </c>
       <c r="D63">
-        <v>0.0337809548762094</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01569443062604448</v>
+      </c>
+      <c r="E63">
+        <v>0.02615095122220644</v>
+      </c>
+      <c r="F63">
+        <v>0.05379917270681527</v>
+      </c>
+      <c r="G63">
+        <v>0.02307855172129055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1127345930561633</v>
+        <v>0.1104647247204819</v>
       </c>
       <c r="C64">
-        <v>0.04937137250540258</v>
+        <v>-0.05340678050618704</v>
       </c>
       <c r="D64">
-        <v>0.03926483652525559</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03966710559451876</v>
+      </c>
+      <c r="E64">
+        <v>0.01519392457666155</v>
+      </c>
+      <c r="F64">
+        <v>-0.0304594860724608</v>
+      </c>
+      <c r="G64">
+        <v>-0.002924661363300477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1561117975081532</v>
+        <v>0.1595037596255936</v>
       </c>
       <c r="C65">
-        <v>-0.05971306771988635</v>
+        <v>0.04981553215734275</v>
       </c>
       <c r="D65">
-        <v>0.0429656519101565</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05174061638664607</v>
+      </c>
+      <c r="E65">
+        <v>0.007133019550904416</v>
+      </c>
+      <c r="F65">
+        <v>-0.01038263476053314</v>
+      </c>
+      <c r="G65">
+        <v>-0.01514655610836474</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1054651589290892</v>
+        <v>0.09811255372678279</v>
       </c>
       <c r="C66">
-        <v>0.1323987263886872</v>
+        <v>-0.1321057519229577</v>
       </c>
       <c r="D66">
-        <v>0.05189269026954597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03703935915154049</v>
+      </c>
+      <c r="E66">
+        <v>0.007866835979092259</v>
+      </c>
+      <c r="F66">
+        <v>0.1013276694021901</v>
+      </c>
+      <c r="G66">
+        <v>-0.009592553976492061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05809892442461626</v>
+        <v>0.04869574444304401</v>
       </c>
       <c r="C67">
-        <v>0.0723598934070474</v>
+        <v>-0.06680810639078083</v>
       </c>
       <c r="D67">
-        <v>-0.03203888438336151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0609859895282106</v>
+      </c>
+      <c r="E67">
+        <v>0.06267301382459763</v>
+      </c>
+      <c r="F67">
+        <v>-0.03162004900188557</v>
+      </c>
+      <c r="G67">
+        <v>-0.0005659650441681615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1359863443713352</v>
+        <v>0.1391684453110402</v>
       </c>
       <c r="C68">
-        <v>-0.2490158117861422</v>
+        <v>0.2501855424677946</v>
       </c>
       <c r="D68">
-        <v>-0.05811460943696052</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03025688479357351</v>
+      </c>
+      <c r="E68">
+        <v>-0.09535231906022246</v>
+      </c>
+      <c r="F68">
+        <v>0.1054527809782391</v>
+      </c>
+      <c r="G68">
+        <v>-0.03252398368916162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03951747344073489</v>
+        <v>0.03893472733868883</v>
       </c>
       <c r="C69">
-        <v>0.01342043587775609</v>
+        <v>-0.01526265944140763</v>
       </c>
       <c r="D69">
-        <v>0.02489993294415785</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006338964267399136</v>
+      </c>
+      <c r="E69">
+        <v>0.06150345280545243</v>
+      </c>
+      <c r="F69">
+        <v>-0.04295915015884979</v>
+      </c>
+      <c r="G69">
+        <v>0.02311225888673659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07087794809565301</v>
+        <v>0.07217729122302101</v>
       </c>
       <c r="C70">
-        <v>0.07296900649761903</v>
+        <v>-0.06783075881683306</v>
       </c>
       <c r="D70">
-        <v>-0.4314013125385688</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.3835006910577505</v>
+      </c>
+      <c r="E70">
+        <v>0.1221444329290796</v>
+      </c>
+      <c r="F70">
+        <v>-0.4180210167089712</v>
+      </c>
+      <c r="G70">
+        <v>-0.4274149694741787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1575460875426452</v>
+        <v>0.1621874537099206</v>
       </c>
       <c r="C71">
-        <v>-0.2592355083485922</v>
+        <v>0.2576695302374804</v>
       </c>
       <c r="D71">
-        <v>-0.06864012893975749</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03652088968661318</v>
+      </c>
+      <c r="E71">
+        <v>-0.107300597543425</v>
+      </c>
+      <c r="F71">
+        <v>0.1096129173082925</v>
+      </c>
+      <c r="G71">
+        <v>-0.03257374216892615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1421325913318967</v>
+        <v>0.1472648490906893</v>
       </c>
       <c r="C72">
-        <v>0.007040481115153091</v>
+        <v>-0.006939024148837796</v>
       </c>
       <c r="D72">
-        <v>0.07979715620107278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06244656180691541</v>
+      </c>
+      <c r="E72">
+        <v>0.04405185751835639</v>
+      </c>
+      <c r="F72">
+        <v>-0.01011337711293493</v>
+      </c>
+      <c r="G72">
+        <v>0.005559173949868631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1932855632768009</v>
+        <v>0.2006926804209504</v>
       </c>
       <c r="C73">
-        <v>0.02165357490089932</v>
+        <v>-0.0284758973079109</v>
       </c>
       <c r="D73">
-        <v>0.06671303869306375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.05595852962490477</v>
+      </c>
+      <c r="E73">
+        <v>0.07708236840037319</v>
+      </c>
+      <c r="F73">
+        <v>-0.09752644570901614</v>
+      </c>
+      <c r="G73">
+        <v>0.02017794422736266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08802005680070209</v>
+        <v>0.08708917720749437</v>
       </c>
       <c r="C74">
-        <v>0.01057854879620417</v>
+        <v>-0.01673665482054099</v>
       </c>
       <c r="D74">
-        <v>0.07868253074659785</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.08192423758059854</v>
+      </c>
+      <c r="E74">
+        <v>0.03362715086912319</v>
+      </c>
+      <c r="F74">
+        <v>-0.06250938974772145</v>
+      </c>
+      <c r="G74">
+        <v>0.007019284002874725</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1248524271605337</v>
+        <v>0.1172791955445097</v>
       </c>
       <c r="C75">
-        <v>0.02300960551990139</v>
+        <v>-0.02632223116405639</v>
       </c>
       <c r="D75">
-        <v>0.07500869398003024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.05259132213655661</v>
+      </c>
+      <c r="E75">
+        <v>0.06854849644141281</v>
+      </c>
+      <c r="F75">
+        <v>-0.05312470413147027</v>
+      </c>
+      <c r="G75">
+        <v>-0.03719329449439018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07437216874256056</v>
+        <v>0.08850131255103405</v>
       </c>
       <c r="C77">
-        <v>0.1244586245515899</v>
+        <v>-0.1203880225546373</v>
       </c>
       <c r="D77">
-        <v>0.06734707026361225</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07123458375288151</v>
+      </c>
+      <c r="E77">
+        <v>-0.008964832087211229</v>
+      </c>
+      <c r="F77">
+        <v>0.08542373141745296</v>
+      </c>
+      <c r="G77">
+        <v>-0.1210051670115604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.09156311004996182</v>
+        <v>0.09406460748381479</v>
       </c>
       <c r="C78">
-        <v>0.1349379261239501</v>
+        <v>-0.1312178477557825</v>
       </c>
       <c r="D78">
-        <v>0.08289114395796482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06547846745392256</v>
+      </c>
+      <c r="E78">
+        <v>-0.005501100470513491</v>
+      </c>
+      <c r="F78">
+        <v>0.1243783711857025</v>
+      </c>
+      <c r="G78">
+        <v>-0.1133109365415966</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1685670023092811</v>
+        <v>0.1634734614039726</v>
       </c>
       <c r="C79">
-        <v>0.02020498494593907</v>
+        <v>-0.02150924931599817</v>
       </c>
       <c r="D79">
-        <v>0.04418244811112407</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03468455253625193</v>
+      </c>
+      <c r="E79">
+        <v>0.04419574769322392</v>
+      </c>
+      <c r="F79">
+        <v>-0.049192688976658</v>
+      </c>
+      <c r="G79">
+        <v>-0.03882868111192354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07639765798766583</v>
+        <v>0.07386000385386216</v>
       </c>
       <c r="C80">
-        <v>0.05859780255199547</v>
+        <v>-0.0570241702641069</v>
       </c>
       <c r="D80">
-        <v>0.02480321540929018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01600923948565714</v>
+      </c>
+      <c r="E80">
+        <v>0.04548707535049552</v>
+      </c>
+      <c r="F80">
+        <v>0.1187425826308766</v>
+      </c>
+      <c r="G80">
+        <v>0.08683458573693802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.111823808090946</v>
+        <v>0.1057638486477477</v>
       </c>
       <c r="C81">
-        <v>-0.01422589649968459</v>
+        <v>0.009416229018028589</v>
       </c>
       <c r="D81">
-        <v>0.04697195193735697</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03066035102917377</v>
+      </c>
+      <c r="E81">
+        <v>0.0667965499320048</v>
+      </c>
+      <c r="F81">
+        <v>-0.0612766097391258</v>
+      </c>
+      <c r="G81">
+        <v>-0.00578286192948986</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1610653205819148</v>
+        <v>0.1576947939609648</v>
       </c>
       <c r="C82">
-        <v>-0.02095559657122053</v>
+        <v>0.01351308528870918</v>
       </c>
       <c r="D82">
-        <v>0.08593360284103804</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09793806293333933</v>
+      </c>
+      <c r="E82">
+        <v>0.02458082517998043</v>
+      </c>
+      <c r="F82">
+        <v>-0.09693873182712505</v>
+      </c>
+      <c r="G82">
+        <v>0.01499724511540652</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05380218676754853</v>
+        <v>0.04969883621557589</v>
       </c>
       <c r="C83">
-        <v>0.05642176688742254</v>
+        <v>-0.05394661810120654</v>
       </c>
       <c r="D83">
-        <v>-0.006016547596785523</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01089767871764194</v>
+      </c>
+      <c r="E83">
+        <v>0.00544223397847567</v>
+      </c>
+      <c r="F83">
+        <v>0.005582164082863849</v>
+      </c>
+      <c r="G83">
+        <v>-0.01937235300346397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.05218601362759648</v>
+        <v>0.04921937626273701</v>
       </c>
       <c r="C84">
-        <v>0.07489571303355687</v>
+        <v>-0.07266207470273392</v>
       </c>
       <c r="D84">
-        <v>0.009221491224914917</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.008067319933872432</v>
+      </c>
+      <c r="E84">
+        <v>0.00674689398267131</v>
+      </c>
+      <c r="F84">
+        <v>-0.0181416727547744</v>
+      </c>
+      <c r="G84">
+        <v>-0.0314975747226198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1411728405284635</v>
+        <v>0.1349074069275978</v>
       </c>
       <c r="C85">
-        <v>0.01212616286598204</v>
+        <v>-0.01573846153988302</v>
       </c>
       <c r="D85">
-        <v>0.0965276416515035</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08889678928349283</v>
+      </c>
+      <c r="E85">
+        <v>0.03630497933064408</v>
+      </c>
+      <c r="F85">
+        <v>-0.03321533943652492</v>
+      </c>
+      <c r="G85">
+        <v>-0.02366749322745353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0872928290725147</v>
+        <v>0.08287877217194976</v>
       </c>
       <c r="C86">
-        <v>0.09982634576968556</v>
+        <v>-0.1031749254502288</v>
       </c>
       <c r="D86">
-        <v>-0.3189021395764486</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.6510186878138127</v>
+      </c>
+      <c r="E86">
+        <v>0.4344708200269223</v>
+      </c>
+      <c r="F86">
+        <v>0.4343855539454274</v>
+      </c>
+      <c r="G86">
+        <v>0.06353214906863271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.08912330233992413</v>
+        <v>0.08831477397910563</v>
       </c>
       <c r="C87">
-        <v>0.08343528877087124</v>
+        <v>-0.08415518214484276</v>
       </c>
       <c r="D87">
-        <v>0.01836873807306737</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04293919573375816</v>
+      </c>
+      <c r="E87">
+        <v>-0.1028239605835937</v>
+      </c>
+      <c r="F87">
+        <v>0.09680258155749097</v>
+      </c>
+      <c r="G87">
+        <v>0.05802804466429078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06191111690854528</v>
+        <v>0.06143544640901624</v>
       </c>
       <c r="C88">
-        <v>0.06091132575938251</v>
+        <v>-0.06205301090936959</v>
       </c>
       <c r="D88">
-        <v>0.01896714821851995</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0162398786226781</v>
+      </c>
+      <c r="E88">
+        <v>0.01648140868188492</v>
+      </c>
+      <c r="F88">
+        <v>-0.02421576875019916</v>
+      </c>
+      <c r="G88">
+        <v>-0.00963840812663724</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1432029688658388</v>
+        <v>0.1464193683473208</v>
       </c>
       <c r="C89">
-        <v>-0.206908008750589</v>
+        <v>0.2180343181902916</v>
       </c>
       <c r="D89">
-        <v>-0.04705742211297002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02452864923964865</v>
+      </c>
+      <c r="E89">
+        <v>-0.09574763165663036</v>
+      </c>
+      <c r="F89">
+        <v>0.08702330905119299</v>
+      </c>
+      <c r="G89">
+        <v>5.835512947808482e-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1713870741714174</v>
+        <v>0.179007077285242</v>
       </c>
       <c r="C90">
-        <v>-0.2407546773166586</v>
+        <v>0.2459945336256564</v>
       </c>
       <c r="D90">
-        <v>-0.09003734806349564</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.05354229110770897</v>
+      </c>
+      <c r="E90">
+        <v>-0.1382578723697624</v>
+      </c>
+      <c r="F90">
+        <v>0.1293717963711793</v>
+      </c>
+      <c r="G90">
+        <v>-0.01821001937415833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1265615012105916</v>
+        <v>0.1205692472424301</v>
       </c>
       <c r="C91">
-        <v>-0.02070283349413091</v>
+        <v>0.01792340370123057</v>
       </c>
       <c r="D91">
-        <v>0.05047886766681601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01796631762217357</v>
+      </c>
+      <c r="E91">
+        <v>0.0981480418213231</v>
+      </c>
+      <c r="F91">
+        <v>-0.08800330462254348</v>
+      </c>
+      <c r="G91">
+        <v>0.008775599448397264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1661215983546495</v>
+        <v>0.1687676966811369</v>
       </c>
       <c r="C92">
-        <v>-0.27251539126907</v>
+        <v>0.2819959360101202</v>
       </c>
       <c r="D92">
-        <v>-0.07655814469996869</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04533258410770789</v>
+      </c>
+      <c r="E92">
+        <v>-0.0961783803228774</v>
+      </c>
+      <c r="F92">
+        <v>0.166608588816815</v>
+      </c>
+      <c r="G92">
+        <v>-0.07590609355414495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1722273491257424</v>
+        <v>0.1801742046579478</v>
       </c>
       <c r="C93">
-        <v>-0.2328666182099131</v>
+        <v>0.2384888260680814</v>
       </c>
       <c r="D93">
-        <v>-0.04807773961784949</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.023788703258949</v>
+      </c>
+      <c r="E93">
+        <v>-0.07125009575309921</v>
+      </c>
+      <c r="F93">
+        <v>0.08546963932733539</v>
+      </c>
+      <c r="G93">
+        <v>-0.07338416515876729</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1212970713846138</v>
+        <v>0.1153350715339166</v>
       </c>
       <c r="C94">
-        <v>0.03558182539448841</v>
+        <v>-0.03760249509096773</v>
       </c>
       <c r="D94">
-        <v>0.06569472001232109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04562300809473056</v>
+      </c>
+      <c r="E94">
+        <v>0.06738490848769178</v>
+      </c>
+      <c r="F94">
+        <v>-0.0557391534465675</v>
+      </c>
+      <c r="G94">
+        <v>-0.02829189062370029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.121857936059047</v>
+        <v>0.1247413271578142</v>
       </c>
       <c r="C95">
-        <v>0.1152409744040852</v>
+        <v>-0.1210478527136643</v>
       </c>
       <c r="D95">
-        <v>0.01956213944428629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.004216572484140002</v>
+      </c>
+      <c r="E95">
+        <v>0.04193460188822559</v>
+      </c>
+      <c r="F95">
+        <v>0.03903995441590877</v>
+      </c>
+      <c r="G95">
+        <v>-0.005339156911460545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1242588318396968</v>
+        <v>0.1224060367945673</v>
       </c>
       <c r="C96">
-        <v>0.133432701864217</v>
+        <v>-0.1381978450282789</v>
       </c>
       <c r="D96">
-        <v>-0.02129493843242338</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.01808278828608494</v>
+      </c>
+      <c r="E96">
+        <v>0.07367346392101412</v>
+      </c>
+      <c r="F96">
+        <v>-0.1689316742945348</v>
+      </c>
+      <c r="G96">
+        <v>-0.05225810738912718</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1920520229155749</v>
+        <v>0.1965926964354358</v>
       </c>
       <c r="C97">
-        <v>-0.006624389441796203</v>
+        <v>0.01138379522605551</v>
       </c>
       <c r="D97">
-        <v>-0.1046695136188133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1601081254319743</v>
+      </c>
+      <c r="E97">
+        <v>0.06814684292183375</v>
+      </c>
+      <c r="F97">
+        <v>-0.2842626343462121</v>
+      </c>
+      <c r="G97">
+        <v>0.8196700279542751</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1973862122904447</v>
+        <v>0.2034374610747643</v>
       </c>
       <c r="C98">
-        <v>0.0233872896094384</v>
+        <v>-0.02648210571050362</v>
       </c>
       <c r="D98">
-        <v>-0.1272252711810641</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09750501869595393</v>
+      </c>
+      <c r="E98">
+        <v>-0.04570602680208815</v>
+      </c>
+      <c r="F98">
+        <v>-0.0982504418448064</v>
+      </c>
+      <c r="G98">
+        <v>-0.0246198489501766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05447181258705198</v>
+        <v>0.05421911246608126</v>
       </c>
       <c r="C99">
-        <v>0.0547967298903738</v>
+        <v>-0.05677545210507149</v>
       </c>
       <c r="D99">
-        <v>0.01023245775435389</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.00388172225668771</v>
+      </c>
+      <c r="E99">
+        <v>0.005677532455754282</v>
+      </c>
+      <c r="F99">
+        <v>0.04321384726805235</v>
+      </c>
+      <c r="G99">
+        <v>0.001783634355028646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.1152085886269103</v>
+        <v>0.1087251846468035</v>
       </c>
       <c r="C100">
-        <v>0.3730300822422389</v>
+        <v>-0.3457380717912896</v>
       </c>
       <c r="D100">
-        <v>-0.6315119628548531</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3888351346340386</v>
+      </c>
+      <c r="E100">
+        <v>-0.7736209448683022</v>
+      </c>
+      <c r="F100">
+        <v>-0.04675104820260553</v>
+      </c>
+      <c r="G100">
+        <v>0.0356653661117934</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02462568184788382</v>
+        <v>0.02723152161137611</v>
       </c>
       <c r="C101">
-        <v>0.04417129507507301</v>
+        <v>-0.04184681848309645</v>
       </c>
       <c r="D101">
-        <v>0.01118683133941033</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.00341783535417945</v>
+      </c>
+      <c r="E101">
+        <v>0.02438887313173318</v>
+      </c>
+      <c r="F101">
+        <v>0.0709872899867845</v>
+      </c>
+      <c r="G101">
+        <v>-0.004472627493945267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
